--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed5/result_data_RandomForest.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.896200000000004</v>
+        <v>6.1742</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.92969999999999</v>
+        <v>-12.1068</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.0665</v>
+        <v>-9.193599999999998</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.845600000000002</v>
+        <v>-7.645299999999999</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.64980000000001</v>
+        <v>-21.6323</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.278599999999999</v>
+        <v>5.6001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.396800000000002</v>
+        <v>-7.5503</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.347399999999999</v>
+        <v>-8.412999999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.850900000000002</v>
+        <v>3.620900000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.7705</v>
+        <v>-13.44209999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.330100000000002</v>
+        <v>4.733400000000004</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2401</v>
+        <v>-21.32720000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.085100000000004</v>
+        <v>9.234000000000004</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.7943</v>
+        <v>-19.8977</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.4781</v>
+        <v>-7.461500000000004</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.145700000000007</v>
+        <v>8.726399999999998</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.56670000000001</v>
+        <v>-19.7063</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.83639999999999</v>
+        <v>-14.09569999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.069500000000001</v>
+        <v>5.063900000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.8157</v>
+        <v>-21.80370000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.97569999999998</v>
+        <v>-21.7984</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.12769999999999</v>
+        <v>-21.95809999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.107999999999995</v>
+        <v>4.931499999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.7782</v>
+        <v>-12.62599999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.71289999999999</v>
+        <v>-7.515399999999996</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.48149999999999</v>
+        <v>-21.50389999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61759999999999</v>
+        <v>-21.60499999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.94450000000002</v>
+        <v>-21.8734</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.32319999999998</v>
+        <v>-13.84979999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.0419</v>
+        <v>-10.9049</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.933700000000003</v>
+        <v>-5.9533</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.7282</v>
+        <v>-21.52730000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.2076</v>
+        <v>-10.9768</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.593</v>
+        <v>-11.4892</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.39489999999998</v>
+        <v>-20.1282</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.187499999999999</v>
+        <v>5.376899999999996</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.277900000000002</v>
+        <v>8.194600000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.6436</v>
+        <v>-12.66970000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
